--- a/office_work.xlsx
+++ b/office_work.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\kWEERA-master\kWEERA-master\Updated-Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\JavaScript-master (1)\JavaScript-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="79">
   <si>
     <t>Error</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Subscriber is delinquent</t>
   </si>
   <si>
-    <t>SUBSRIBER_NOT_FOUND</t>
-  </si>
-  <si>
     <t>GSAA_FSM</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>ELIGIBILITY_BILLING_INSUFFICIENT_CREDIT</t>
   </si>
   <si>
-    <t>An error (ELIGIBILITY_BILLING_INSUFFICIENT_CREDIT) occurred while handling a session documen</t>
-  </si>
-  <si>
     <t>MADISON_FSM</t>
   </si>
   <si>
@@ -83,12 +77,6 @@
     <t>An error (ELIGIBILITY_BILLING_INSUFFICIENT_CREDIT) occurred while handling a session document</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>REDDING_FSM</t>
   </si>
   <si>
@@ -108,6 +96,171 @@
   </si>
   <si>
     <t>MAQRUETTE_FSM</t>
+  </si>
+  <si>
+    <t>00000072974ee74b9411</t>
+  </si>
+  <si>
+    <t>Session_ID</t>
+  </si>
+  <si>
+    <t>0000074f1d6a64e5f901</t>
+  </si>
+  <si>
+    <t>An error (DATABASE_TIMEOUT_ERROR) occurred while handling a session documen</t>
+  </si>
+  <si>
+    <t>00000719070e37454a34</t>
+  </si>
+  <si>
+    <t>Unable to allocate a qam for session 00000719070e37454a3</t>
+  </si>
+  <si>
+    <t>0000074e546a274617c1</t>
+  </si>
+  <si>
+    <t>00000381f302dd453f53</t>
+  </si>
+  <si>
+    <t>Unable to allocate a qam for session 00000381f302dd453f5</t>
+  </si>
+  <si>
+    <t>00000776f1de3c8bd5bb</t>
+  </si>
+  <si>
+    <t>Unable to allocate a qam for session 00000776f1de3c8bd5b</t>
+  </si>
+  <si>
+    <t>0000071c894a274a9225</t>
+  </si>
+  <si>
+    <t>0000076a741cac846210</t>
+  </si>
+  <si>
+    <t>00000ad9ece937492ad8</t>
+  </si>
+  <si>
+    <t>000007884639b49f8e1b</t>
+  </si>
+  <si>
+    <t>00000734a64e2746eee8</t>
+  </si>
+  <si>
+    <t>00000b2dafdf3704fab4</t>
+  </si>
+  <si>
+    <t>Unable to setup pump 172.27.91.21</t>
+  </si>
+  <si>
+    <t>00000926a5ba374650a6</t>
+  </si>
+  <si>
+    <t>Unable to setup pump 172.22.86.9</t>
+  </si>
+  <si>
+    <t>00000b442dfa37477587</t>
+  </si>
+  <si>
+    <t>Unable to setup pump 172.26.112.1</t>
+  </si>
+  <si>
+    <t>00000b2dafdf370420a8</t>
+  </si>
+  <si>
+    <t>0000074f595962a3992d</t>
+  </si>
+  <si>
+    <t>Unable to setup pump 172.17.86.2</t>
+  </si>
+  <si>
+    <t>00000752de3ca8fcaed2</t>
+  </si>
+  <si>
+    <t>Unable to setup pump 172.17.161.2</t>
+  </si>
+  <si>
+    <t>SUBSCRIBER_NOT_FOUND</t>
+  </si>
+  <si>
+    <t>Unable to find active subscriber in equipment collection with selectors [[{&lt;&lt;"mac_address"&gt;&gt;</t>
+  </si>
+  <si>
+    <t>0000073035903745da2</t>
+  </si>
+  <si>
+    <t>000007744c35374b1564</t>
+  </si>
+  <si>
+    <t>00000b4cdc75374865a5</t>
+  </si>
+  <si>
+    <t>000007503fcf274696f9</t>
+  </si>
+  <si>
+    <t>STEVENS_PT_FSM</t>
+  </si>
+  <si>
+    <t>00000aac4796274a8a48</t>
+  </si>
+  <si>
+    <t>00000a9d97b0274ad8a1</t>
+  </si>
+  <si>
+    <t>00000295006c274a0c54</t>
+  </si>
+  <si>
+    <t>00000b2c525e37482e43</t>
+  </si>
+  <si>
+    <t>00000a9db9577c2e7b01</t>
+  </si>
+  <si>
+    <t>000004b113cc2746c7e9</t>
+  </si>
+  <si>
+    <t>00000503b0842746ae54</t>
+  </si>
+  <si>
+    <t>000003b4151237461209</t>
+  </si>
+  <si>
+    <t>00000aeeb1e43704c319</t>
+  </si>
+  <si>
+    <t>000007693509374ae26e</t>
+  </si>
+  <si>
+    <t>0000072f2c8df6d0e100</t>
+  </si>
+  <si>
+    <t>000004fc9e0ee0060500</t>
+  </si>
+  <si>
+    <t>00001123cb3c00143b1a</t>
+  </si>
+  <si>
+    <t>000007484d77b05a0c41</t>
+  </si>
+  <si>
+    <t>0000048b28287a5d943d</t>
+  </si>
+  <si>
+    <t>000003b228489062df68</t>
+  </si>
+  <si>
+    <t>0000073042604e21d901</t>
+  </si>
+  <si>
+    <t>000006e4c3000373bd61</t>
+  </si>
+  <si>
+    <t>000001491b7e8b5fb422</t>
+  </si>
+  <si>
+    <t>00000766aa5af2660500</t>
+  </si>
+  <si>
+    <t>000003d012ad3746c1b0</t>
   </si>
 </sst>
 </file>
@@ -143,8 +296,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,148 +579,667 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="2" max="2" width="29.26953125" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="35.26953125" customWidth="1"/>
+    <col min="2" max="2" width="45.1796875" customWidth="1"/>
+    <col min="3" max="3" width="80.08984375" customWidth="1"/>
+    <col min="4" max="4" width="85.453125" customWidth="1"/>
     <col min="5" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>